--- a/Desktop/Borang baru Edited/ICPMS/PKKK HMS 003A  003B 003C 003D Laporan IQC ICPMS UAT 1 April 2024.xlsx
+++ b/Desktop/Borang baru Edited/ICPMS/PKKK HMS 003A  003B 003C 003D Laporan IQC ICPMS UAT 1 April 2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Desktop\Borang baru Edited\ICPMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\ICPMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC3DAEE-2E30-4B8A-9E2A-136E6D7A7B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t xml:space="preserve">Unit Analisis Tradisional </t>
   </si>
@@ -347,21 +348,34 @@
   <si>
     <t>Header</t>
   </si>
+  <si>
+    <t>IQC POW A (ppb):</t>
+  </si>
+  <si>
+    <t>IQC POW B (ppb):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -706,7 +720,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -720,370 +734,300 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1455,11 +1399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,208 +1412,268 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="91"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="93"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="93"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="95"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="34"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="96"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="28"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="89"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="28"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="89"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="89"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="35" t="s">
+      <c r="B10" s="89"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="89"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="89"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="36"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="19" t="s">
+      <c r="B13" s="97"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="19" t="s">
+      <c r="B14" s="89"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="19" t="s">
+      <c r="B15" s="89"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="20" t="s">
+      <c r="B16" s="89"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="30"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="37" t="s">
+      <c r="B17" s="89"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="89"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="89"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="B20" s="98"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="19" t="s">
+      <c r="B21" s="89"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="28"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="19" t="s">
+      <c r="B22" s="89"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="28"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="25" t="s">
+      <c r="B23" s="89"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="30"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="39" t="s">
+      <c r="B24" s="89"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="89"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="89"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="40"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="19" t="s">
+      <c r="B27" s="99"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="19" t="s">
+      <c r="B28" s="89"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="19" t="s">
+      <c r="B29" s="89"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="20" t="s">
+      <c r="B30" s="89"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="31" t="s">
+      <c r="B31" s="89"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="89"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="89"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="32"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="19" t="s">
+      <c r="B34" s="91"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="20" t="s">
+      <c r="B35" s="100"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B36" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B10">
-    <cfRule type="expression" dxfId="21" priority="5">
+  <conditionalFormatting sqref="B7:B12">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>LEN(B12)=0</formula>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="expression" dxfId="25" priority="7">
+      <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20">
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>LEN(B17)=0</formula>
+  <conditionalFormatting sqref="B21:B24">
+    <cfRule type="expression" dxfId="24" priority="6">
+      <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="expression" dxfId="18" priority="2">
-      <formula>LEN(B22)=0</formula>
+  <conditionalFormatting sqref="B28:B31">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>LEN(B28)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>LEN(B27)=0</formula>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>LEN(B35)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B19">
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>LEN(B18)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>LEN(B25)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>LEN(B32)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,11 +1682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1691,273 +1695,353 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="91"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="94"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="102"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="102"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="34"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="96"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="26"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="89"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="89"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="26"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="89"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="35" t="s">
+      <c r="B10" s="89"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="89"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="89"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="36"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="19" t="s">
+      <c r="B13" s="97"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="19" t="s">
+      <c r="B14" s="89"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="26"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="19" t="s">
+      <c r="B15" s="89"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="20" t="s">
+      <c r="B16" s="89"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="37" t="s">
+      <c r="B17" s="89"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="89"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="89"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="B20" s="98"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="26"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="19" t="s">
+      <c r="B21" s="89"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="19" t="s">
+      <c r="B22" s="89"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="26"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="25" t="s">
+      <c r="B23" s="89"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="26"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="39" t="s">
+      <c r="B24" s="89"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="89"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="89"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="40"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="19" t="s">
+      <c r="B27" s="99"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="26"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="19" t="s">
+      <c r="B28" s="89"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="26"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="19" t="s">
+      <c r="B29" s="89"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="26"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="20" t="s">
+      <c r="B30" s="89"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="31" t="s">
+      <c r="B31" s="89"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="89"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="89"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="32"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="19" t="s">
+      <c r="B34" s="91"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="20" t="s">
+      <c r="B35" s="102"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B36" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>LEN(B4)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>LEN(B5)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>LEN(B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>LEN(B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>LEN(B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>LEN(B12)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>LEN(B13)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>LEN(B15)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>LEN(B16)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>LEN(B17)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>LEN(B18)=0</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>LEN(B19)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>LEN(B20)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>LEN(B22)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>LEN(B27)=0</formula>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>LEN(B23)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>LEN(B24)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B31">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>LEN(B28)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>LEN(B35)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{9CE9DA8B-E761-4E00-8373-8D919B094CB6}">
+            <xm:f>LEN(FormTitan!B12)=0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B11:B12 B18:B19 B25:B26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{67BAF21B-884B-49AB-9DF1-352654CEE5A1}">
+            <xm:f>LEN(FormTitan!B33)=0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B32:B33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:G32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1973,95 +2057,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="88">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="67">
         <f>FormTitan!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="72">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="51">
         <f>FormTitan!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="72">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="51">
         <f>FormTitan!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="20">
         <f>FormTitan!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2071,7 +2155,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2080,114 +2164,120 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="49">
         <f>FormTitan!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="49">
         <f>FormTitan!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="63">
+      <c r="D8" s="49">
+        <f>FormTitan!B11</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="42">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="59" t="e">
+      <c r="F8" s="38" t="e">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="54" t="e">
+      <c r="H8" s="58"/>
+      <c r="I8" s="33" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="80" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="49">
         <f>FormTitan!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="49">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="63">
+      <c r="D10" s="49">
+        <f>FormTitan!B12</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="59" t="e">
+      <c r="F10" s="38" t="e">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="57" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="23" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="41">
-        <f>FormTitan!B12</f>
+      <c r="G12" s="20">
+        <f>FormTitan!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2206,114 +2296,120 @@
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="70">
-        <f>FormTitan!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="70">
+      <c r="B14" s="49">
         <f>FormTitan!B15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="63">
+      <c r="C14" s="49">
+        <f>FormTitan!B17</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="49">
+        <f>FormTitan!B18</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="59" t="e">
+      <c r="F14" s="38" t="e">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="54" t="e">
+      <c r="H14" s="41"/>
+      <c r="I14" s="33" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="69"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="57" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="55"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="70">
-        <f>FormTitan!B14</f>
+      <c r="B16" s="49">
+        <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="49">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="63">
+      <c r="D16" s="49">
+        <f>FormTitan!B19</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="42">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="59" t="e">
+      <c r="F16" s="38" t="e">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="55"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="57" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="56"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="41">
-        <f>FormTitan!B17</f>
+      <c r="G18" s="20">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2332,114 +2428,120 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="70">
-        <f>FormTitan!B18</f>
+      <c r="B20" s="49">
+        <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="70">
-        <f>FormTitan!B20</f>
+      <c r="C20" s="49">
+        <f>FormTitan!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="63">
+      <c r="D20" s="49">
+        <f>FormTitan!B25</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="42">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="59" t="e">
+      <c r="F20" s="38" t="e">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="54" t="e">
+      <c r="H20" s="41"/>
+      <c r="I20" s="33" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="57" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="55"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="70">
-        <f>FormTitan!B19</f>
+      <c r="B22" s="49">
+        <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="49">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="63">
+      <c r="D22" s="49">
+        <f>FormTitan!B26</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="42">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="59" t="e">
+      <c r="F22" s="38" t="e">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="55"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="57" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="56"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="41">
-        <f>FormTitan!B17</f>
+      <c r="G24" s="20">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="H24" s="42"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2458,97 +2560,103 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="70">
-        <f>FormTitan!B18</f>
+      <c r="B26" s="49">
+        <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="70">
-        <f>FormTitan!B20</f>
+      <c r="C26" s="49">
+        <f>FormTitan!B24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="63">
+      <c r="D26" s="49">
+        <f>FormTitan!B32</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="42">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="59" t="e">
+      <c r="F26" s="38" t="e">
         <f>((D26-C26)/1000)/(5/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="54" t="e">
+      <c r="H26" s="41"/>
+      <c r="I26" s="33" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="57" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="70">
-        <f>FormTitan!B19</f>
+      <c r="B28" s="49">
+        <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="49">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="63">
+      <c r="D28" s="49">
+        <f>FormTitan!B33</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="42">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="59" t="e">
+      <c r="F28" s="38" t="e">
         <f>((D28-C28)/1000)/(5/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="55"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="57" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="56"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="13"/>
@@ -2562,58 +2670,58 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="43">
-        <f>FormTitan!B27</f>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="22">
+        <f>FormTitan!B35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="47">
-        <f>FormTitan!B28</f>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="26">
+        <f>FormTitan!B36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="48"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="91"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="87"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
@@ -13306,11 +13414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+    <sheetView view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13328,95 +13436,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="72">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="51">
         <f>FormGH!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="72">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="51">
         <f>FormGH!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="72">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="51">
         <f>FormGH!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="20">
         <f>FormGH!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -13435,114 +13543,120 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="49">
         <f>FormGH!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="49">
         <f>FormGH!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="106">
+      <c r="D8" s="49">
+        <f>FormGH!B11</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="85">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="59" t="e">
+      <c r="F8" s="38" t="e">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="54" t="e">
+      <c r="H8" s="84"/>
+      <c r="I8" s="33" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="57" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="101"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="80"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="49">
         <f>FormGH!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="49">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="106">
+      <c r="D10" s="49">
+        <f>FormGH!B12</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="85">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="59" t="e">
+      <c r="F10" s="38" t="e">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="101"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="80"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="57" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="102"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="23" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="41">
-        <f>FormGH!B12</f>
+      <c r="G12" s="20">
+        <f>FormGH!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -13561,114 +13675,120 @@
       <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="70">
-        <f>FormGH!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="70">
+      <c r="B14" s="49">
         <f>FormGH!B15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="106">
+      <c r="C14" s="49">
+        <f>FormGH!B17</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="49">
+        <f>FormGH!B18</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="85">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="59" t="e">
+      <c r="F14" s="38" t="e">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="54" t="e">
+      <c r="H14" s="84"/>
+      <c r="I14" s="33" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="102"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="57" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="101"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="70">
-        <f>FormGH!B14</f>
+      <c r="B16" s="49">
+        <f>FormGH!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="49">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="106">
+      <c r="D16" s="49">
+        <f>FormGH!B19</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="85">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="59" t="e">
+      <c r="F16" s="38" t="e">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="101"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="80"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="57" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="102"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="94">
-        <f>FormGH!B17</f>
+      <c r="G18" s="73">
+        <f>FormGH!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="95"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -13687,114 +13807,120 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="70">
-        <f>FormGH!B18</f>
+      <c r="B20" s="49">
+        <f>FormGH!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="70">
-        <f>FormGH!B20</f>
+      <c r="C20" s="49">
+        <f>FormGH!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="63">
+      <c r="D20" s="49">
+        <f>FormGH!B25</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="42">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="59" t="e">
+      <c r="F20" s="38" t="e">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="54" t="e">
+      <c r="H20" s="84"/>
+      <c r="I20" s="33" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="57" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="101"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="70">
-        <f>FormGH!B19</f>
+      <c r="B22" s="49">
+        <f>FormGH!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="49">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="63">
+      <c r="D22" s="49">
+        <f>FormGH!B26</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="42">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="59" t="e">
+      <c r="F22" s="38" t="e">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="105"/>
-      <c r="I22" s="101"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="57" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="103"/>
-      <c r="I23" s="102"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="81"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="41">
-        <f>FormGH!B22</f>
+      <c r="G24" s="20">
+        <f>FormGH!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="42"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -13813,151 +13939,157 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="100" t="s">
+      <c r="F25" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="70">
-        <f>FormGH!B23</f>
+      <c r="B26" s="49">
+        <f>FormGH!B29</f>
         <v>0</v>
       </c>
-      <c r="C26" s="70">
-        <f>FormGH!B25</f>
+      <c r="C26" s="49">
+        <f>FormGH!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="63">
+      <c r="D26" s="49">
+        <f>FormGH!B32</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="42">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="59" t="e">
+      <c r="F26" s="38" t="e">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="54" t="e">
+      <c r="H26" s="84"/>
+      <c r="I26" s="33" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="102"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="57" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="101"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="70">
-        <f>FormGH!B24</f>
+      <c r="B28" s="49">
+        <f>FormGH!B30</f>
         <v>0</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="49">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="63">
+      <c r="D28" s="49">
+        <f>FormGH!B33</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="42">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="59" t="e">
+      <c r="F28" s="38" t="e">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="101"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="57" t="s">
+      <c r="A29" s="81"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="102"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="96">
-        <f>FormGH!B27</f>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="75">
+        <f>FormGH!B35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="47">
-        <f>FormGH!B28</f>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="26">
+        <f>FormGH!B36</f>
         <v>0</v>
       </c>
-      <c r="I30" s="48"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>

--- a/Desktop/Borang baru Edited/ICPMS/PKKK HMS 003A  003B 003C 003D Laporan IQC ICPMS UAT 1 April 2024.xlsx
+++ b/Desktop/Borang baru Edited/ICPMS/PKKK HMS 003A  003B 003C 003D Laporan IQC ICPMS UAT 1 April 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\ICPMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC3DAEE-2E30-4B8A-9E2A-136E6D7A7B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC39D634-66F4-4111-BF18-3E70CBD0FAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="4" r:id="rId1"/>
@@ -787,6 +787,31 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -963,31 +988,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -1413,214 +1413,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="93"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="89"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="21"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="21"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="89"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="98"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="89"/>
+      <c r="B21" s="21"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="89"/>
+      <c r="B22" s="21"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="89"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="89"/>
+      <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="89"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="34"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="89"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="89"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="89"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="89"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="89"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="89"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="100"/>
+      <c r="B35" s="27"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="101"/>
+      <c r="B36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1696,214 +1696,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="89"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="21"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="21"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="89"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="98"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="89"/>
+      <c r="B21" s="21"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="89"/>
+      <c r="B22" s="21"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="89"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="89"/>
+      <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="89"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="34"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="89"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="89"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="89"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="89"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="89"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="89"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="101"/>
+      <c r="B36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2057,95 +2057,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="67">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="82">
         <f>FormTitan!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="51">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="66">
         <f>FormTitan!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="51">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66">
         <f>FormTitan!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="35">
         <f>FormTitan!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2164,120 +2164,120 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="64">
         <f>FormTitan!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="64">
         <f>FormTitan!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="64">
         <f>FormTitan!B11</f>
         <v>0</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="57">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="38" t="e">
+      <c r="F8" s="53" t="e">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="33" t="e">
+      <c r="H8" s="73"/>
+      <c r="I8" s="48" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="59" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="64">
         <f>FormTitan!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="64">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="64">
         <f>FormTitan!B12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="57">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="38" t="e">
+      <c r="F10" s="53" t="e">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="36" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="35">
         <f>FormTitan!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2296,120 +2296,120 @@
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="64">
         <f>FormTitan!B15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="64">
         <f>FormTitan!B17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="64">
         <f>FormTitan!B18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="57">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="38" t="e">
+      <c r="F14" s="53" t="e">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="33" t="e">
+      <c r="H14" s="56"/>
+      <c r="I14" s="48" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="36" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="34"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="64">
         <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="64">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="64">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="57">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="e">
+      <c r="F16" s="53" t="e">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="36" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="35"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="35">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2428,120 +2428,120 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="64">
         <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="64">
         <f>FormTitan!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="64">
         <f>FormTitan!B25</f>
         <v>0</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="57">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="38" t="e">
+      <c r="F20" s="53" t="e">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="33" t="e">
+      <c r="H20" s="56"/>
+      <c r="I20" s="48" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="36" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="34"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="64">
         <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="64">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="64">
         <f>FormTitan!B26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="57">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="38" t="e">
+      <c r="F22" s="53" t="e">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="36" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="35"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="20">
-        <f>FormTitan!B21</f>
+      <c r="G24" s="35">
+        <f>FormTitan!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2560,103 +2560,103 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="64">
         <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="49">
-        <f>FormTitan!B24</f>
+      <c r="C26" s="64">
+        <f>FormTitan!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="64">
         <f>FormTitan!B32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="57">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="38" t="e">
+      <c r="F26" s="53" t="e">
         <f>((D26-C26)/1000)/(5/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="33" t="e">
+      <c r="H26" s="56"/>
+      <c r="I26" s="48" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="36" t="s">
+      <c r="A27" s="63"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="64">
         <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="64">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="64">
         <f>FormTitan!B33</f>
         <v>0</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="57">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="38" t="e">
+      <c r="F28" s="53" t="e">
         <f>((D28-C28)/1000)/(5/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="34"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="36" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="13"/>
@@ -2670,58 +2670,58 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="22">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="37">
         <f>FormTitan!B35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="26">
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="41">
         <f>FormTitan!B36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="27"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="81"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
@@ -13417,8 +13417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13436,95 +13436,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="51">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="66">
         <f>FormGH!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="51">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="66">
         <f>FormGH!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="51">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66">
         <f>FormGH!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="35">
         <f>FormGH!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -13543,120 +13543,120 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="64">
         <f>FormGH!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="64">
         <f>FormGH!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="64">
         <f>FormGH!B11</f>
         <v>0</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="100">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="38" t="e">
+      <c r="F8" s="53" t="e">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="33" t="e">
+      <c r="H8" s="99"/>
+      <c r="I8" s="48" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="36" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="80"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="64">
         <f>FormGH!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="64">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="64">
         <f>FormGH!B12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="100">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="38" t="e">
+      <c r="F10" s="53" t="e">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="80"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="36" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="81"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="35">
         <f>FormGH!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -13675,120 +13675,120 @@
       <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="64">
         <f>FormGH!B15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="64">
         <f>FormGH!B17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="64">
         <f>FormGH!B18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="100">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="38" t="e">
+      <c r="F14" s="53" t="e">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="33" t="e">
+      <c r="H14" s="99"/>
+      <c r="I14" s="48" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="81"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="36" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="80"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="64">
         <f>FormGH!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="64">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="64">
         <f>FormGH!B19</f>
         <v>0</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="100">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="e">
+      <c r="F16" s="53" t="e">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="80"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="36" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="81"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="96"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="88">
         <f>FormGH!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="74"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -13807,120 +13807,120 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="64">
         <f>FormGH!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="64">
         <f>FormGH!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="64">
         <f>FormGH!B25</f>
         <v>0</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="57">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="38" t="e">
+      <c r="F20" s="53" t="e">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="33" t="e">
+      <c r="H20" s="99"/>
+      <c r="I20" s="48" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="36" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="80"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="64">
         <f>FormGH!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="64">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="64">
         <f>FormGH!B26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="57">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="38" t="e">
+      <c r="F22" s="53" t="e">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="80"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="95"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="36" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="82"/>
-      <c r="I23" s="81"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="96"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="35">
         <f>FormGH!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -13939,157 +13939,157 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="64">
         <f>FormGH!B29</f>
         <v>0</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="64">
         <f>FormGH!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="64">
         <f>FormGH!B32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="57">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="38" t="e">
+      <c r="F26" s="53" t="e">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="33" t="e">
+      <c r="H26" s="99"/>
+      <c r="I26" s="48" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="36" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="80"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="95"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="64">
         <f>FormGH!B30</f>
         <v>0</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="64">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="64">
         <f>FormGH!B33</f>
         <v>0</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="57">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="38" t="e">
+      <c r="F28" s="53" t="e">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="80"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="95"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="36" t="s">
+      <c r="A29" s="96"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="82"/>
-      <c r="I29" s="81"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="75">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="90">
         <f>FormGH!B35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="26">
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="41">
         <f>FormGH!B36</f>
         <v>0</v>
       </c>
-      <c r="I30" s="27"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="81"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
